--- a/core/src/test/resources/resultLinks.xlsx
+++ b/core/src/test/resources/resultLinks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t/>
   </si>
@@ -20,7 +20,19 @@
     <t>Номер кузова</t>
   </si>
   <si>
-    <t>KMHEC41BBBA289488</t>
+    <t>KMHEC41BABA263951</t>
+  </si>
+  <si>
+    <t>KMHEC41CBBA240950</t>
+  </si>
+  <si>
+    <t>KMH00000000000000</t>
+  </si>
+  <si>
+    <t>10C029!B2</t>
+  </si>
+  <si>
+    <t>10C029!B11</t>
   </si>
 </sst>
 </file>
@@ -37,12 +49,32 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGrid">
+        <bgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGrid">
+        <bgColor indexed="17"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -57,14 +89,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
@@ -77,11 +111,31 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="2">
         <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink display="10C029" ref="B2" r:id="rId1"/>
+    <hyperlink display="10C029" ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/core/src/test/resources/resultLinks.xlsx
+++ b/core/src/test/resources/resultLinks.xlsx
@@ -1024,22 +1024,22 @@
     </fill>
     <fill>
       <patternFill>
-        <bgColor indexed="52"/>
+        <bgColor rgb="FF9933"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGrid">
-        <bgColor indexed="52"/>
+        <bgColor rgb="FF9933"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill>
-        <bgColor indexed="17"/>
+        <bgColor rgb="33FF33"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGrid">
-        <bgColor indexed="17"/>
+        <bgColor rgb="33FF33"/>
       </patternFill>
     </fill>
   </fills>
@@ -1069,7 +1069,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="16"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
